--- a/case_new.xlsx
+++ b/case_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -67,13 +67,85 @@
     <t>{"username":"admin","password":"aaaaaaaaaa"}</t>
   </si>
   <si>
-    <t>$..retCode==200</t>
+    <t>$..retCode==555554</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>正确的账号，正确的密码</t>
+  </si>
+  <si>
+    <t>{"username":"admin","password":"Aisino123"}</t>
+  </si>
+  <si>
+    <t>$..retCode==000000</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>成功添加培训信息</t>
+  </si>
+  <si>
+    <t>train/addTrain</t>
+  </si>
+  <si>
+    <t>{"trainName":"1","hostDepartment":"吧哈哈","trainLocation":"123123","trainTime":"2020-11-27 10:18:00","trainDuration":"11","trainAmount":"1","codeGoodsName":"培训费","issuer":"刘晶晶","remark":"","departmentId":1,"goodsId":1}</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>添加培训信息-不传入培训名称</t>
+  </si>
+  <si>
+    <t>{"hostDepartment":"吧哈哈","trainLocation":"123123","trainTime":"2020-11-27 10:18:00","trainDuration":"11","trainAmount":"1","codeGoodsName":"培训费","issuer":"刘晶晶","remark":"","departmentId":1,"goodsId":1}</t>
+  </si>
+  <si>
+    <t>$..retCode==555552</t>
+  </si>
+  <si>
+    <t>case_5</t>
+  </si>
+  <si>
+    <t>添加培训信息-不传入主办科室</t>
+  </si>
+  <si>
+    <t>{"trainName":"1","trainLocation":"123123","trainTime":"2020-11-27 10:18:00","trainDuration":"11","trainAmount":"1","codeGoodsName":"培训费","issuer":"刘晶晶","remark":"","departmentId":1,"goodsId":1}</t>
+  </si>
+  <si>
+    <t>case_6</t>
+  </si>
+  <si>
+    <t>查询所有的培训信息</t>
+  </si>
+  <si>
+    <t>train/listPage</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>case_7</t>
+  </si>
+  <si>
+    <t>查询一条培训信息的详情</t>
+  </si>
+  <si>
+    <t>train/selectTrain</t>
+  </si>
+  <si>
+    <t>case_6-$..records[0].trainCode</t>
+  </si>
+  <si>
+    <t>{"trainCode":"case_6-$..records[0].trainCode"}</t>
   </si>
 </sst>
 </file>
@@ -96,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,35 +188,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,30 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,37 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +511,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,15 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,19 +558,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,26 +603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,22 +1084,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" customWidth="1"/>
     <col min="2" max="2" width="23.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="11.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="10.1818181818182" customWidth="1"/>
     <col min="5" max="5" width="19.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="14.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="44.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="37.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="55.2727272727273" customWidth="1"/>
     <col min="9" max="9" width="28.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
     <col min="11" max="11" width="16.0909090909091" customWidth="1"/>
@@ -1101,6 +1173,183 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/case_new.xlsx
+++ b/case_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>用例编号</t>
   </si>
@@ -67,7 +67,7 @@
     <t>{"username":"admin","password":"aaaaaaaaaa"}</t>
   </si>
   <si>
-    <t>$..retCode==555554</t>
+    <t>$..retCode==555553</t>
   </si>
   <si>
     <t>yes</t>
@@ -146,6 +146,51 @@
   </si>
   <si>
     <t>{"trainCode":"case_6-$..records[0].trainCode"}</t>
+  </si>
+  <si>
+    <t>case_8</t>
+  </si>
+  <si>
+    <t>成功修改一条培训信息</t>
+  </si>
+  <si>
+    <t>train/updateTrain</t>
+  </si>
+  <si>
+    <t>{"goodsId":11,"issuer":"刘艳映","codeGoodsName": "015培训费","trainCode":"case_6-$..records[0].trainCode","trainName":"发挥中医护理特色","hostDepartment":"护理一科","trainLocation":"护理二楼201室","trainTime":1588129705000,"trainDuration":2,"trainStatus":0,"trainAmount":10000.00,"remark": "备注"}</t>
+  </si>
+  <si>
+    <t>case_9</t>
+  </si>
+  <si>
+    <t>修改培训状态信息-不填写培训编号</t>
+  </si>
+  <si>
+    <t>train/updateTrainStatus</t>
+  </si>
+  <si>
+    <t>{"trainStatus":1}</t>
+  </si>
+  <si>
+    <t>case_10</t>
+  </si>
+  <si>
+    <t>修改培训状态信息-不填写培训状态</t>
+  </si>
+  <si>
+    <t>case_11</t>
+  </si>
+  <si>
+    <t>成功修改培训状态信息</t>
+  </si>
+  <si>
+    <t>{"trainCode":"case_6-$..records[0].trainCode","trainStatus":2}</t>
+  </si>
+  <si>
+    <t>case_12</t>
+  </si>
+  <si>
+    <t>修改一条培训信息-修改的培训为已经下架的</t>
   </si>
 </sst>
 </file>
@@ -153,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -174,89 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,7 +228,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,9 +266,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +295,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,31 +365,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,133 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,56 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,6 +583,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,8 +651,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,139 +676,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,16 +1132,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.81818181818182" customWidth="1"/>
-    <col min="2" max="2" width="23.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="29.8181818181818" customWidth="1"/>
     <col min="3" max="3" width="24.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="10.1818181818182" customWidth="1"/>
     <col min="5" max="5" width="19.8181818181818" customWidth="1"/>
@@ -1350,6 +1398,163 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" ht="98" spans="1:12">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/case_new.xlsx
+++ b/case_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>用例编号</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>修改一条培训信息-修改的培训为已经下架的</t>
+  </si>
+  <si>
+    <t>$..retCode==555566</t>
   </si>
 </sst>
 </file>
@@ -198,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -213,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +230,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -235,7 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +292,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +337,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -264,93 +352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,13 +368,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,103 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,23 +565,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +627,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -608,54 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1147,7 +1150,7 @@
     <col min="5" max="5" width="19.8181818181818" customWidth="1"/>
     <col min="6" max="6" width="14.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="37.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="55.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="64.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="28.3636363636364" customWidth="1"/>
     <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
     <col min="11" max="11" width="16.0909090909091" customWidth="1"/>
@@ -1398,7 +1401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="98" spans="1:12">
+    <row r="9" ht="84" spans="1:12">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
